--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H2">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N2">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O2">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P2">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q2">
-        <v>181.1748794652175</v>
+        <v>76.47838891491334</v>
       </c>
       <c r="R2">
-        <v>1630.573915186958</v>
+        <v>688.3055002342201</v>
       </c>
       <c r="S2">
-        <v>0.006548457971367749</v>
+        <v>0.002629279631623795</v>
       </c>
       <c r="T2">
-        <v>0.00654845797136775</v>
+        <v>0.002629279631623796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H3">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>322.104362</v>
       </c>
       <c r="O3">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P3">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q3">
-        <v>3058.086764328747</v>
+        <v>2907.150950815455</v>
       </c>
       <c r="R3">
-        <v>27522.78087895873</v>
+        <v>26164.35855733909</v>
       </c>
       <c r="S3">
-        <v>0.110532722351541</v>
+        <v>0.09994604867446805</v>
       </c>
       <c r="T3">
-        <v>0.110532722351541</v>
+        <v>0.09994604867446805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H4">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N4">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O4">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P4">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q4">
-        <v>891.9620473845355</v>
+        <v>777.2553797832572</v>
       </c>
       <c r="R4">
-        <v>8027.65842646082</v>
+        <v>6995.298418049315</v>
       </c>
       <c r="S4">
-        <v>0.0322394362650818</v>
+        <v>0.02672155843800245</v>
       </c>
       <c r="T4">
-        <v>0.03223943626508181</v>
+        <v>0.02672155843800246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H5">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I5">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J5">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N5">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O5">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P5">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q5">
-        <v>1683.374880049924</v>
+        <v>1892.365267334129</v>
       </c>
       <c r="R5">
-        <v>15150.37392044932</v>
+        <v>17031.28740600716</v>
       </c>
       <c r="S5">
-        <v>0.06084458112847526</v>
+        <v>0.06505834554817233</v>
       </c>
       <c r="T5">
-        <v>0.06084458112847525</v>
+        <v>0.06505834554817233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N6">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O6">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P6">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q6">
-        <v>530.8301046138643</v>
+        <v>235.7102750813907</v>
       </c>
       <c r="R6">
-        <v>4777.470941524778</v>
+        <v>2121.392475732516</v>
       </c>
       <c r="S6">
-        <v>0.01918653756117437</v>
+        <v>0.008103573231981237</v>
       </c>
       <c r="T6">
-        <v>0.01918653756117437</v>
+        <v>0.008103573231981239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>322.104362</v>
       </c>
       <c r="O7">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P7">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q7">
         <v>8959.986736674236</v>
@@ -883,10 +883,10 @@
         <v>80639.88063006812</v>
       </c>
       <c r="S7">
-        <v>0.3238533771476201</v>
+        <v>0.3080387931885819</v>
       </c>
       <c r="T7">
-        <v>0.32385337714762</v>
+        <v>0.3080387931885819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>250.353271</v>
       </c>
       <c r="I8">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J8">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N8">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O8">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P8">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q8">
-        <v>2613.388281655402</v>
+        <v>2395.540517740651</v>
       </c>
       <c r="R8">
-        <v>23520.49453489862</v>
+        <v>21559.86465966586</v>
       </c>
       <c r="S8">
-        <v>0.09445936089926259</v>
+        <v>0.08235719893410037</v>
       </c>
       <c r="T8">
-        <v>0.09445936089926259</v>
+        <v>0.08235719893410039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>250.353271</v>
       </c>
       <c r="I9">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J9">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N9">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O9">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P9">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q9">
-        <v>4932.174186172458</v>
+        <v>5832.365770859184</v>
       </c>
       <c r="R9">
-        <v>44389.56767555212</v>
+        <v>52491.29193773265</v>
       </c>
       <c r="S9">
-        <v>0.1782704945682934</v>
+        <v>0.2005131219822225</v>
       </c>
       <c r="T9">
-        <v>0.1782704945682934</v>
+        <v>0.2005131219822225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H10">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I10">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J10">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N10">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O10">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P10">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q10">
-        <v>56.03092457972444</v>
+        <v>40.801542569844</v>
       </c>
       <c r="R10">
-        <v>504.27832121752</v>
+        <v>367.213883128596</v>
       </c>
       <c r="S10">
-        <v>0.002025204353883084</v>
+        <v>0.001402731756510663</v>
       </c>
       <c r="T10">
-        <v>0.002025204353883085</v>
+        <v>0.001402731756510664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H11">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I11">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J11">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>322.104362</v>
       </c>
       <c r="O11">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P11">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q11">
-        <v>945.7571014046313</v>
+        <v>1550.977275536318</v>
       </c>
       <c r="R11">
-        <v>8511.813912641681</v>
+        <v>13958.79547982686</v>
       </c>
       <c r="S11">
-        <v>0.03418382641098879</v>
+        <v>0.0533216378840821</v>
       </c>
       <c r="T11">
-        <v>0.03418382641098879</v>
+        <v>0.05332163788408211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H12">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I12">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J12">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N12">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O12">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P12">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q12">
-        <v>275.8520295556444</v>
+        <v>414.669018474613</v>
       </c>
       <c r="R12">
-        <v>2482.6682660008</v>
+        <v>3732.021166271517</v>
       </c>
       <c r="S12">
-        <v>0.009970507098962526</v>
+        <v>0.01425606396277165</v>
       </c>
       <c r="T12">
-        <v>0.009970507098962527</v>
+        <v>0.01425606396277166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H13">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I13">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J13">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N13">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O13">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P13">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q13">
-        <v>520.6077753267556</v>
+        <v>1009.584839695432</v>
       </c>
       <c r="R13">
-        <v>4685.4699779408</v>
+        <v>9086.263557258886</v>
       </c>
       <c r="S13">
-        <v>0.01881705756536201</v>
+        <v>0.03470890133892122</v>
       </c>
       <c r="T13">
-        <v>0.01881705756536201</v>
+        <v>0.03470890133892123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H14">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I14">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J14">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N14">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O14">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P14">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q14">
-        <v>94.02346860136643</v>
+        <v>40.50776111350267</v>
       </c>
       <c r="R14">
-        <v>846.211217412298</v>
+        <v>364.569850021524</v>
       </c>
       <c r="S14">
-        <v>0.003398422200007417</v>
+        <v>0.001392631732042752</v>
       </c>
       <c r="T14">
-        <v>0.003398422200007418</v>
+        <v>0.001392631732042753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H15">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I15">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J15">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>322.104362</v>
       </c>
       <c r="O15">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P15">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q15">
-        <v>1587.040795693309</v>
+        <v>1539.809845727031</v>
       </c>
       <c r="R15">
-        <v>14283.36716123978</v>
+        <v>13858.28861154328</v>
       </c>
       <c r="S15">
-        <v>0.0573626430999717</v>
+        <v>0.05293770856559432</v>
       </c>
       <c r="T15">
-        <v>0.0573626430999717</v>
+        <v>0.05293770856559433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H16">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I16">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J16">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N16">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O16">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P16">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q16">
-        <v>462.8973166888244</v>
+        <v>411.6832963554414</v>
       </c>
       <c r="R16">
-        <v>4166.07585019942</v>
+        <v>3705.149667198973</v>
       </c>
       <c r="S16">
-        <v>0.01673114745456543</v>
+        <v>0.01415341668600488</v>
       </c>
       <c r="T16">
-        <v>0.01673114745456543</v>
+        <v>0.01415341668600488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H17">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I17">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J17">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N17">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O17">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P17">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q17">
-        <v>873.6130839214355</v>
+        <v>1002.315572755386</v>
       </c>
       <c r="R17">
-        <v>7862.517755292919</v>
+        <v>9020.840154798472</v>
       </c>
       <c r="S17">
-        <v>0.0315762239234429</v>
+        <v>0.03445898844491972</v>
       </c>
       <c r="T17">
-        <v>0.0315762239234429</v>
+        <v>0.03445898844491972</v>
       </c>
     </row>
   </sheetData>
